--- a/data/uniques23_OLS.xlsx
+++ b/data/uniques23_OLS.xlsx
@@ -446,137 +446,137 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>565</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>725</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>871</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>428</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>678</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>605</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>799</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>229</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>549</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>88</t>
         </is>
       </c>
     </row>
@@ -593,70 +593,70 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0.4523912106850495</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2800517018526497</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1938819474364498</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6247307195174493</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.1723395088323998</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4523912106850495</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.6247307195174493</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.2800517018526497</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0.1938819474364498</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0.02154243860404998</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.2154243860404998</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -687,85 +687,85 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3035477139062797</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.233162587744261</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1138303927148549</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01897173211914248</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.834756213242269</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.2466325175488522</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.3035477139062797</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.834756213242269</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.233162587744261</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.1138303927148549</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.3035477139062797</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
       <c r="AD3" t="n">
-        <v>0.01897173211914248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -781,40 +781,40 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.485391603240855</v>
+        <v>3.584581389639087</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.07365578197888534</v>
       </c>
       <c r="G4" t="n">
-        <v>3.584581389639087</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3068990915786889</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2332433095998036</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.01227596366314756</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07365578197888534</v>
       </c>
       <c r="L4" t="n">
         <v>0.01227596366314756</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.01227596366314756</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0.02455192732629511</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -823,43 +823,43 @@
         <v>0.01227596366314756</v>
       </c>
       <c r="R4" t="n">
+        <v>0.01227596366314756</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.7979376381045912</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
+        <v>1.485391603240855</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.02455192732629511</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.3068990915786889</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0.2332433095998036</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.3068990915786889</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
       <c r="AD4" t="n">
-        <v>0.01227596366314756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -875,70 +875,70 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>2.053903960156026</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.002203759613901316</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.201555854287414</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1410406152896842</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01542631729730921</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.004407519227802631</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02203759613901316</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.002203759613901316</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.439055027877559</v>
+      </c>
+      <c r="X5" t="n">
         <v>4.400907948960928</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.053903960156026</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.002203759613901316</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.02203759613901316</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="Y5" t="n">
         <v>0.006611278841703947</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.439055027877559</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.004407519227802631</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2.201555854287414</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.1410406152896842</v>
       </c>
       <c r="Z5" t="n">
         <v>0.002203759613901316</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>0.2291909998457368</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0.002203759613901316</v>
-      </c>
       <c r="AD5" t="n">
-        <v>0.01542631729730921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -969,49 +969,49 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.073071967605375</v>
+        <v>3.740106755015645</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.00184060371801951</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.003681207436039021</v>
       </c>
       <c r="G6" t="n">
-        <v>3.740106755015645</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.00184060371801951</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.9147800478556966</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00184060371801951</v>
+        <v>0.2043070127001657</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003681207436039021</v>
+        <v>0.03313086692435119</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.01288422602613657</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.007362414872078041</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.007362414872078041</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.006810233756672</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0.00184060371801951</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00184060371801951</v>
+        <v>0.007362414872078041</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.006810233756672</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9147800478556966</v>
+        <v>1.073071967605375</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2043070127001657</v>
+        <v>0.007362414872078041</v>
       </c>
       <c r="Z6" t="n">
         <v>0.003681207436039021</v>
       </c>
       <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.3349898766795509</v>
+      </c>
+      <c r="AD6" t="n">
         <v>0.00184060371801951</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.3349898766795509</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.03313086692435119</v>
       </c>
     </row>
     <row r="7">
@@ -1157,70 +1157,70 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4680489875106099</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.004850248575239481</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2303868073238753</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2182611858857766</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.007275372862859222</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.009700497150478962</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.00242512428761974</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.4995756032496665</v>
+      </c>
+      <c r="X8" t="n">
         <v>0.3904450103067782</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4680489875106099</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.004850248575239481</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.009700497150478962</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.00242512428761974</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.4995756032496665</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.2303868073238753</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0.2182611858857766</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0.01455074572571844</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>0.2012853158724384</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
       <c r="AD8" t="n">
-        <v>0.007275372862859222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1345,85 +1345,85 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3989520066690485</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002977253781112302</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01488626890556151</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.005954507562224604</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2590210789567703</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2768846016434441</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.005954507562224604</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.002977253781112302</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.005954507562224604</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.06549958318447065</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.155174467071573</v>
+      </c>
+      <c r="X10" t="n">
         <v>0.3751339764201501</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.3989520066690485</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.002977253781112302</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.002977253781112302</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.01488626890556151</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.005954507562224604</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="Y10" t="n">
         <v>0.008931761343336906</v>
       </c>
-      <c r="P10" t="n">
-        <v>0.06549958318447065</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.155174467071573</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.2590210789567703</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.2768846016434441</v>
-      </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.005954507562224604</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0.4138382755746099</v>
       </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
       <c r="AD10" t="n">
-        <v>0.005954507562224604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1475,26 +1475,26 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>0.57</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1539,79 +1539,79 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.920951650038373</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05116398055768739</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.07674597083653108</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.920951650038373</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.1534919416730622</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>0.0255819902788437</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0.1534919416730622</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0255819902788437</v>
+      </c>
+      <c r="AD12" t="n">
         <v>11.97237145049885</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.05116398055768739</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.0255819902788437</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1627,85 +1627,85 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.007745533409067438</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.06712795621191779</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3020758029536301</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.02323660022720231</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.002581844469689146</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.1187648456057007</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.007745533409067438</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.3020758029536301</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.06712795621191779</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
+        <v>0.002581844469689146</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.01807291128782402</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0.005163688939378292</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.005163688939378292</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>0.02581844469689146</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.005163688939378292</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.002581844469689146</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="AC13" t="n">
+        <v>0.1962201796963751</v>
+      </c>
+      <c r="AD13" t="n">
         <v>0.1394196013632139</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.01807291128782402</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.002581844469689146</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.02323660022720231</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0.1962201796963751</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1727,79 +1727,79 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6947201270345376</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6550218340611353</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03969829297340214</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.05954743946010321</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.6947201270345376</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
+        <v>0.01984914648670107</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.01984914648670107</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>0.03969829297340214</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.01984914648670107</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.01984914648670107</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="AC14" t="n">
+        <v>0.1984914648670107</v>
+      </c>
+      <c r="AD14" t="n">
         <v>0.8535132989281461</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.03969829297340214</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.6550218340611353</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.1984914648670107</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1821,79 +1821,79 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.50579539727868</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.03359650596337981</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1847807827985889</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.05039475894506971</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.50579539727868</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>0.520745842432387</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>4.905089870653452</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.1847807827985889</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.03359650596337981</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1912,82 +1912,82 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.651496199364957</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04810930433945925</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.00962186086789185</v>
       </c>
-      <c r="F16" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>2.362166843067449</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.651496199364957</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.03367651303762147</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.00962186086789185</v>
+      </c>
+      <c r="AB16" t="n">
         <v>0.0577311652073511</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.03367651303762147</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
+      <c r="AC16" t="n">
+        <v>0.02405465216972963</v>
+      </c>
+      <c r="AD16" t="n">
         <v>2.732608486481285</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.00962186086789185</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.04810930433945925</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.02405465216972963</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2006,82 +2006,82 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9429813846680022</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01710069868568916</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01221478477549226</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.08550349342844579</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.01465774173059071</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.08550349342844579</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9429813846680022</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.002442956955098451</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.01465774173059071</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0.06595983778765818</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.002442956955098451</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.01465774173059071</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="AC17" t="n">
+        <v>0.06107392387746129</v>
+      </c>
+      <c r="AD17" t="n">
         <v>0.9258806859823131</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.01221478477549226</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.01710069868568916</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.06107392387746129</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2103,29 +2103,29 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.058761249338274</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.2117522498676549</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.058761249338274</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
@@ -2151,31 +2151,31 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>0.9528851244044468</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2642506606266515</v>
+        <v>0.1761671070844344</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2200,22 +2200,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1761671070844344</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1510003775009437</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.849754624386561</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06291682395872657</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2230,31 +2230,31 @@
         <v>0.01258336479174531</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.06291682395872657</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.01258336479174531</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.006669183339625</v>
       </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.01258336479174531</v>
-      </c>
       <c r="X19" t="n">
-        <v>0.1510003775009437</v>
+        <v>0.2642506606266515</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.849754624386561</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>0.01258336479174531</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>2.705423430225242</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2291,29 +2291,29 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.0002414916455965206</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
@@ -2339,31 +2339,31 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
         <v>0.002897899747158247</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.01444669170759896</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01444669170759896</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.01186474194186276</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.002372948388372553</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01186474194186276</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2506,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.002372948388372553</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.2950365829543207</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.002372948388372553</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0.002372948388372553</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.2950365829543207</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.002372948388372553</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -2570,82 +2570,82 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.371539285168001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02804262478968031</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.005098659052669148</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1325651353693978</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0101973181053383</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.1223678172640596</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
         <v>0.01529597715800744</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.1325651353693978</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.371539285168001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="AB23" t="n">
         <v>0.03314128384234946</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.1223678172640596</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.0101973181053383</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
+      <c r="AC23" t="n">
+        <v>0.06118390863202978</v>
+      </c>
+      <c r="AD23" t="n">
         <v>0.8999133227961047</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.005098659052669148</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.02804262478968031</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0.06118390863202978</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2667,79 +2667,79 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.251439819202449</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0461714174625161</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.009720298413161283</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.05346164127238706</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.251439819202449</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" t="n">
+        <v>0.0121503730164516</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.01944059682632257</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
         <v>0.06561201428883867</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.01944059682632257</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.0121503730164516</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
+      <c r="AC24" t="n">
+        <v>0.3669412650968384</v>
+      </c>
+      <c r="AD24" t="n">
         <v>2.605039974727224</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.009720298413161283</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.0461714174625161</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.3669412650968384</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2755,25 +2755,25 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.009932459276916964</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.009932459276916964</v>
-      </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.09435836313071116</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2785,14 +2785,14 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
@@ -2809,16 +2809,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.124155740961462</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004966229638458482</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0.004966229638458482</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.09435836313071116</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0.009932459276916964</v>
@@ -2827,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>0.124155740961462</v>
       </c>
     </row>
     <row r="26">
@@ -2849,85 +2849,85 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
+        <v>0.002874885004599816</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2932382704691812</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.005749770009199632</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.002874885004599816</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8107175712971482</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.008624655013799448</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.2932382704691812</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.138454461821527</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.4312327506899724</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0.02874885004599816</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.06324747010119594</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.327736890524379</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.005749770009199632</v>
+      </c>
+      <c r="Y26" t="n">
         <v>0.04024839006439743</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.06324747010119594</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.138454461821527</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.327736890524379</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.002874885004599816</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.4312327506899724</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.8107175712971482</v>
       </c>
       <c r="Z26" t="n">
         <v>0.0718721251149954</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.005749770009199632</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
         <v>0.8825896964121436</v>
       </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>0.002874885004599816</v>
       </c>
     </row>
     <row r="27">
@@ -2976,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.001319574569158903</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.001319574569158903</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2988,11 +2988,11 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>0.00395872370747671</v>
       </c>
-      <c r="T27" t="n">
-        <v>0.001319574569158903</v>
-      </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.001319574569158903</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
         <v>0.3998310944551476</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3131,85 +3131,85 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>0.007825644637477012</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4069335211488046</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.05477951246233909</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.01173846695621552</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.007825644637477012</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
+        <v>0.03912822318738506</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.157099816097351</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.003912822318738506</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.03130257854990805</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.4069335211488046</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.05477951246233909</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.475134014164417</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.4617130336111437</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.1095590249246782</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.498610948076848</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.1486872481120632</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.01173846695621552</v>
+      </c>
+      <c r="Y29" t="n">
         <v>0.1056462026059397</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.498610948076848</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.475134014164417</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.1486872481120632</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.4617130336111437</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.03912822318738506</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>5.157099816097351</v>
       </c>
       <c r="Z29" t="n">
         <v>1.737293109519897</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01173846695621552</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
         <v>7.160464843291465</v>
       </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
       <c r="AD29" t="n">
-        <v>0.003912822318738506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3225,16 +3225,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.01919017463058914</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.05757052389176742</v>
       </c>
       <c r="F30" t="n">
-        <v>1.823066589905968</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01919017463058914</v>
+        <v>0.1151410477835348</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3243,67 +3243,67 @@
         <v>0.1151410477835348</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05757052389176742</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.823066589905968</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>0.01919017463058914</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
         <v>0.268662444828248</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
+      <c r="AC30" t="n">
+        <v>0.134331222414124</v>
+      </c>
+      <c r="AD30" t="n">
         <v>0.5757052389176741</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.1151410477835348</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0.134331222414124</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3319,37 +3319,37 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.004483098717833767</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.0403478884605039</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.192773244866852</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01793239487133507</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>0.1613915538420156</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.004483098717833767</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.192773244866852</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0403478884605039</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
-        <v>0.008966197435667534</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3373,31 +3373,31 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0.008966197435667534</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.008966197435667534</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.6276338204967273</v>
+      </c>
+      <c r="AD31" t="n">
         <v>0.1748408499955169</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.008966197435667534</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.01793239487133507</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.6276338204967273</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3507,85 +3507,85 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.09877518767285659</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.02963255630185697</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.1481627815092849</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01975503753457131</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>0.03951007506914263</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="Y33" t="n">
         <v>0.009877518767285657</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.0493875938364283</v>
+      </c>
+      <c r="AD33" t="n">
         <v>0.0691426313709996</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.02963255630185697</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0.1481627815092849</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.09877518767285659</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.0493875938364283</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.01975503753457131</v>
       </c>
     </row>
     <row r="34">
@@ -3601,82 +3601,82 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1625135427952329</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5958829902491874</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>0.9750812567713976</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
       <c r="Y34" t="n">
-        <v>0.5958829902491874</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.1625135427952329</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
         <v>0.6771397616468039</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -3749,31 +3749,31 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
         <v>0.55</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3789,82 +3789,82 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01447282726680657</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01447282726680657</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.003618206816701643</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.003618206816701643</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.097185035096606</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
         <v>0.2098559953686953</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.097185035096606</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.003618206816701643</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.003618206816701643</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
       <c r="Y36" t="n">
-        <v>0.01447282726680657</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.01447282726680657</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
         <v>1.432809899413851</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -3883,85 +3883,85 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1323348070618665</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2917380973863876</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.006015218502812114</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.003007609251406057</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.006015218502812114</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.0210532647598424</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>0.06917501278233933</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.003007609251406057</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="Y37" t="n">
         <v>0.006015218502812114</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.006015218502812114</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.0210532647598424</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.2917380973863876</v>
       </c>
       <c r="Z37" t="n">
         <v>0.03007609251406057</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.1323348070618665</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
         <v>0.8631838551535385</v>
       </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
       <c r="AD37" t="n">
-        <v>0.006015218502812114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3977,85 +3977,85 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.08154478439559006</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.009785374127470806</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.1908147954856807</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.006523582751647205</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.008154478439559005</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.004892687063735403</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>0.04240328788570683</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="Y38" t="n">
         <v>0.009785374127470806</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.004892687063735403</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.008154478439559005</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.009785374127470806</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.1908147954856807</v>
       </c>
       <c r="Z38" t="n">
         <v>0.001630895687911801</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.08154478439559006</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
         <v>0.06686672320438386</v>
       </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
       <c r="AD38" t="n">
-        <v>0.006523582751647205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4074,32 +4074,32 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.01713428999785821</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5632897836795887</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>0.05782822874277147</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.5632897836795887</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.01713428999785821</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
@@ -4125,31 +4125,31 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
         <v>0.04926108374384236</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4168,32 +4168,32 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.001210053121332026</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.07744339976524969</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>0.07260318727992159</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.07744339976524969</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.001210053121332026</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -4219,31 +4219,31 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
         <v>0.1899783400491282</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.007502719735904265</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -4389,26 +4389,26 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>0.003751359867952133</v>
       </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.007502719735904265</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -4447,85 +4447,85 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.04199916001679967</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.1679966400671987</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.262914741705166</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>0.2099958000839983</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.04199916001679967</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.262914741705166</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.02099958000839983</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
         <v>0.1679966400671987</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.02099958000839983</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
+      <c r="AD43" t="n">
         <v>1.007979840403192</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0.1679966400671987</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.04927079227433977</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04927079227433977</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4595,31 +4595,31 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
         <v>0.1675206937327552</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4644,13 +4644,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.41</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4744,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.03638470764213619</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.001347581764523563</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4789,22 +4789,22 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.03638470764213619</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
         <v>0.001347581764523563</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0.001347581764523563</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -4859,25 +4859,25 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
         <v>0.004311273981461522</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4920,82 +4920,82 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.02585418241120083</v>
       </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.09745037985760312</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.005966349787200191</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.005966349787200191</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
         <v>0.5568593134720178</v>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.09745037985760312</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.02585418241120083</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
       <c r="N48" t="n">
+        <v>0.003977566524800128</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.001988783262400064</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
         <v>0.01193269957440038</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.003977566524800128</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
+      <c r="AC48" t="n">
+        <v>0.04773079829760152</v>
+      </c>
+      <c r="AD48" t="n">
         <v>1.25293345531204</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0.001988783262400064</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.005966349787200191</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0.005966349787200191</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0.04773079829760152</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5020,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.1264400112391121</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1264400112391121</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -5065,31 +5065,31 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
         <v>0.01404889013767912</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5114,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -5223,22 +5223,22 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
         <v>0.04099598670866957</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -5293,79 +5293,79 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
         <v>0.005456331162926049</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
         <v>0.003637554108617366</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.0007963178263708611</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -5423,34 +5423,34 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>0.0003981589131854306</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0.0003981589131854306</v>
-      </c>
       <c r="X53" t="n">
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0007963178263708611</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
@@ -5459,10 +5459,10 @@
         <v>0</v>
       </c>
       <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
         <v>0.001194476739556292</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.264812975835816</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.264812975835816</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>0.001908396946564886</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5629,31 +5629,31 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
         <v>0.005725190839694656</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0.001908396946564886</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>0.01744652639659444</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5723,31 +5723,31 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
         <v>0.003489305279318887</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0.01744652639659444</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5763,85 +5763,85 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.09247738507583145</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.9390658102700339</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
         <v>0.03110602952550695</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.1723442176413222</v>
+      </c>
+      <c r="AD57" t="n">
         <v>0.01849547701516629</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0.9390658102700339</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.09247738507583145</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0.1723442176413222</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5857,34 +5857,34 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.01542020046260601</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.01542020046260601</v>
       </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.06168080185042405</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.07710100231303006</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
         <v>0.1233616037008481</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.01542020046260601</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.06168080185042405</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.01542020046260601</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.04626060138781804</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0.01542020046260601</v>
@@ -5896,46 +5896,46 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
+        <v>0.04626060138781804</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
         <v>0.01542020046260601</v>
       </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
+      <c r="AC58" t="n">
+        <v>1.264456437933693</v>
+      </c>
+      <c r="AD58" t="n">
         <v>0.2158828064764842</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0.07710100231303006</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>1.264456437933693</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>2.708933717579251</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -5963,58 +5963,58 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.325648414985591</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>0.07684918347742556</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.708933717579251</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>8.93371757925072</v>
       </c>
       <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.150816522574448</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.1536983669548511</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
         <v>0.1152737752161383</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0.1536983669548511</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>8.93371757925072</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
-        <v>3.150816522574448</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.325648414985591</v>
       </c>
       <c r="Z59" t="n">
         <v>0.03842459173871278</v>
@@ -6023,10 +6023,10 @@
         <v>0</v>
       </c>
       <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
         <v>1.364073006724304</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -6045,85 +6045,85 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05255228952808044</v>
+        <v>0.007006971937077392</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>3.051536278597204</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>0.003503485968538696</v>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.007006971937077392</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.04204183162246435</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>0.03503485968538696</v>
       </c>
       <c r="J60" t="n">
-        <v>3.051536278597204</v>
+        <v>0.9459412115054479</v>
       </c>
       <c r="K60" t="n">
         <v>0.003503485968538696</v>
       </c>
       <c r="L60" t="n">
+        <v>0.04204183162246435</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10.57352065304979</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3.619101005500473</v>
+      </c>
+      <c r="Q60" t="n">
         <v>0.02102091581123218</v>
       </c>
-      <c r="M60" t="n">
+      <c r="R60" t="n">
         <v>0.003503485968538696</v>
       </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
+      <c r="S60" t="n">
+        <v>0.003503485968538696</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1331324668044704</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.1681673264898574</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.05255228952808044</v>
+      </c>
+      <c r="Y60" t="n">
         <v>0.07006971937077391</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0.1331324668044704</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>10.57352065304979</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.1681673264898574</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0.04204183162246435</v>
-      </c>
-      <c r="W60" t="n">
-        <v>3.619101005500473</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0.03503485968538696</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0.9459412115054479</v>
       </c>
       <c r="Z60" t="n">
         <v>0.1086080650246996</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.007006971937077392</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
         <v>1.261254948673931</v>
       </c>
-      <c r="AC60" t="n">
-        <v>0.003503485968538696</v>
-      </c>
       <c r="AD60" t="n">
-        <v>0.003503485968538696</v>
+        <v>0.04204183162246435</v>
       </c>
     </row>
     <row r="61">
@@ -6139,85 +6139,85 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.005338268265774583</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.03380903234990569</v>
       </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.1334567066443646</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.003558845510516389</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.003558845510516389</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
         <v>0.09786825153920069</v>
       </c>
-      <c r="G61" t="n">
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
         <v>0.005338268265774583</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.1334567066443646</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.03380903234990569</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.003558845510516389</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
         <v>0.005338268265774583</v>
       </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0.003558845510516389</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
+      <c r="AC61" t="n">
+        <v>0.05872095092352041</v>
+      </c>
+      <c r="AD61" t="n">
         <v>0.5195914445353927</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0.005338268265774583</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.003558845510516389</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0.003558845510516389</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0.05872095092352041</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6236,79 +6236,79 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.2789140944589066</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.03718854592785422</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
+        <v>0.07437709185570844</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2975083674228338</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0.05578281889178133</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.2789140944589066</v>
-      </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.7809594644849386</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.3161026403867608</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
         <v>0.03718854592785422</v>
       </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
+      <c r="W62" t="n">
+        <v>0.05578281889178133</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
         <v>0.1115656377835627</v>
       </c>
-      <c r="P62" t="n">
-        <v>0.03718854592785422</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.7809594644849386</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.05578281889178133</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0.3161026403867608</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0.2975083674228338</v>
-      </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.07437709185570844</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
         <v>0.3904797322424693</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -6327,85 +6327,85 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.3576101177496729</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.00436109899694723</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
+        <v>0.008722197993894461</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.142607937200175</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0.01308329699084169</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.3576101177496729</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1.626689925861317</v>
       </c>
       <c r="O63" t="n">
-        <v>0.01308329699084169</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
+        <v>0.4491931966855648</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
         <v>0.07849978194505015</v>
       </c>
-      <c r="Q63" t="n">
-        <v>1.626689925861317</v>
-      </c>
-      <c r="R63" t="n">
+      <c r="W63" t="n">
         <v>0.06541648495420846</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0.00436109899694723</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0.4491931966855648</v>
       </c>
       <c r="X63" t="n">
         <v>0.00436109899694723</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.142607937200175</v>
+        <v>0.01308329699084169</v>
       </c>
       <c r="Z63" t="n">
         <v>0.04797208896641954</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.008722197993894461</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
         <v>0.5276929786306149</v>
       </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>0.00436109899694723</v>
       </c>
     </row>
     <row r="64">
@@ -6421,70 +6421,70 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
+        <v>0.04623208506703652</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4160887656033287</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.04623208506703652</v>
-      </c>
-      <c r="H64" t="n">
+      <c r="J64" t="n">
+        <v>1.109570041608877</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.4160887656033287</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1.363846509477578</v>
       </c>
       <c r="O64" t="n">
-        <v>0.02311604253351826</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
+        <v>0.3929727230698105</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
         <v>0.1386962552011096</v>
       </c>
-      <c r="Q64" t="n">
-        <v>1.363846509477578</v>
-      </c>
-      <c r="R64" t="n">
+      <c r="W64" t="n">
         <v>0.1618122977346279</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0.3929727230698105</v>
       </c>
       <c r="X64" t="n">
         <v>0.02311604253351826</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.109570041608877</v>
+        <v>0.02311604253351826</v>
       </c>
       <c r="Z64" t="n">
         <v>0.02311604253351826</v>
@@ -6493,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
         <v>0.6472491909385114</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>7.76</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -6609,34 +6609,34 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.326619488296135</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.5443658138268916</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.05443658138268917</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
         <v>0.1633097441480675</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.326619488296135</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.5443658138268916</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0.05443658138268917</v>
@@ -6645,49 +6645,49 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>0.1633097441480675</v>
       </c>
       <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
         <v>0.05443658138268917</v>
       </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
+      <c r="AC66" t="n">
+        <v>0.1088731627653783</v>
+      </c>
+      <c r="AD66" t="n">
         <v>0.2721829069134458</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0.1633097441480675</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0.05443658138268917</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0.1088731627653783</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -6809,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.05374242720343951</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.0293140512018761</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6860,13 +6860,13 @@
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.0293140512018761</v>
+        <v>0</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.05374242720343951</v>
+        <v>0</v>
       </c>
       <c r="AB68" t="n">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.6298629121896998</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6915,55 +6915,55 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>0.005292965648652941</v>
       </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
         <v>0.02117186259461176</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0.6298629121896998</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
       </c>
       <c r="AC69" t="n">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>5.23</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
         <v>5.11</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -7151,10 +7151,10 @@
         <v>0</v>
       </c>
       <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
